--- a/backend/DB/users.xlsx
+++ b/backend/DB/users.xlsx
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>9876765434</v>
+        <v>9089876765</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -541,7 +541,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Oil</t>
+          <t>OPA</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -551,11 +551,11 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Johncena</t>
+          <t>johnc</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>1234</v>
+        <v>123456</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
@@ -564,37 +564,37 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Johns</t>
+          <t>Yash</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cenas</t>
+          <t>K</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Johncena@gmail.com</t>
+          <t>yashk@gmail.com</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9876765434</t>
+          <t>9089787656</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>India</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>India</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -604,22 +604,22 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Oil</t>
+          <t>RAS</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Engineer</t>
+          <t>Specialist</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>yashk</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>123456</t>
+          <t>13579</t>
         </is>
       </c>
       <c r="M3" t="n">
